--- a/src/test/resources/excel/reference/output_multi.xlsx
+++ b/src/test/resources/excel/reference/output_multi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr documentId="8_{CCF18116-77BF-4B9D-8720-F22817AB5E2D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr documentId="10_ncr:100000_{AFC493AB-152A-4B56-AD65-5A0D740B6D67}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView windowHeight="11790" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="11790" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="複数シート出力テンプレート" r:id="rId1" sheetId="1"/>
-    <sheet name="COTOS商材2018年" r:id="rId6" sheetId="2"/>
-    <sheet name="COTOS商材2019年" r:id="rId7" sheetId="3"/>
+    <sheet name="複数シート出力テンプレート" r:id="rId1" sheetId="2"/>
+    <sheet name="COTOS商材2018年" r:id="rId6" sheetId="3"/>
+    <sheet name="COTOS商材2019年" r:id="rId7" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="0" name="_xlnm.Print_Area">複数シート出力テンプレート!$A$1:$G$24</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
@@ -90,79 +90,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>金額</t>
+    <rPh eb="2" sb="0">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.price}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.count}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品リスト</t>
+    <rPh eb="2" sb="0">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.text}</t>
+  </si>
+  <si>
+    <t>${app.text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.title} 申込書</t>
+    <rPh eb="16" sb="13">
+      <t>モウシコミショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>商品コード</t>
     <rPh eb="2" sb="0">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>商品名</t>
     <rPh eb="3" sb="0">
       <t>ショウヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>単価</t>
     <rPh eb="2" sb="0">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数量</t>
     <rPh eb="2" sb="0">
       <t>スウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <rPh eb="2" sb="0">
-      <t>キンガク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${item.code}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${item.name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.price}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.count}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品リスト</t>
-    <rPh eb="2" sb="0">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.text}</t>
-  </si>
-  <si>
-    <t>${app.text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.title} 申込書</t>
-    <rPh eb="16" sb="13">
-      <t>モウシコミショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -278,12 +278,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -300,12 +294,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -436,7 +436,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="6">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="6">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -450,8 +450,8 @@
     </xf>
     <xf applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
@@ -468,12 +468,12 @@
       <protection locked="0"/>
     </xf>
     <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="6" xfId="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="3" numFmtId="6" xfId="1">
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="6" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="6" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="3" fontId="4" numFmtId="6" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="6" fillId="3" fontId="3" numFmtId="6" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="3" numFmtId="6" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="3" fontId="3" numFmtId="6" xfId="1"/>
     <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -498,68 +498,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>803413</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>91110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5928587D-9289-43FD-84C8-6A3C0BE2209C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5781261" y="1374914"/>
-          <a:ext cx="2352261" cy="455544"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP"/>
-            <a:t>本シートは保護シートです。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -575,10 +513,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1158" name="図 3">
+        <xdr:cNvPr id="2" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B4442A-1DAF-4308-BC17-0713499D3957}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76EF7EA-087A-41BB-A132-F0AC4FD2DA98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -632,6 +570,80 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1424608</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267D9F65-6B86-4DC7-9F3B-D4B2E3743FB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553074" y="1516960"/>
+          <a:ext cx="2348534" cy="605872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:t>本シートは保護シートです。</a:t>
+          </a:r>
+          <a:endParaRPr altLang="ja-JP" lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr altLang="ja-JP" lang="en-US"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr altLang="en-US" lang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -925,12 +937,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA03CB3-5D69-4FDC-A2B4-4F8F1927CB5B}">
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1002,169 +1014,11 @@
     </row>
   </sheetData>
   <sheetProtection password="C404" selectLockedCells="1" sheet="1"/>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="5"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1" scale="77"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryRight="true" summaryBelow="true"/>
-    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="true"/>
-    <col min="3" max="3" width="19.44140625" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="17.44140625" customWidth="true"/>
-    <col min="6" max="6" width="17.44140625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="24.75" customHeight="true">
-      <c r="C2" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="4" ht="20.25" customHeight="true">
-      <c r="B4" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5">
-        <f>C4</f>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" ht="20.25" customHeight="true">
-      <c r="B5" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="C5" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3">
-        <f>C5+1</f>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="20.25" customHeight="true">
-      <c r="B6" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="20.25" customHeight="true">
-      <c r="B7" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="20.25" customHeight="true">
-      <c r="B8" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="10" ht="20.25" customHeight="true">
-      <c r="B10" t="s" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="20.25" customHeight="true">
-      <c r="B11" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="21.0" customHeight="true">
-      <c r="B12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D12" t="n" s="13">
-        <v>100.0</v>
-      </c>
-      <c r="E12" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="15">
-        <f>D12*E12</f>
-      </c>
-    </row>
-    <row r="13" ht="21.0" customHeight="true">
-      <c r="B13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="D13" t="n" s="13">
-        <v>1850.0</v>
-      </c>
-      <c r="E13" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="15">
-        <f>D13*E13</f>
-      </c>
-    </row>
-    <row r="14" ht="21.0" customHeight="true">
-      <c r="C14" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="D14" s="14">
-        <f>SUM(D12:D13)</f>
-      </c>
-      <c r="E14" s="12">
-        <f>SUM(E12:E13)</f>
-      </c>
-      <c r="F14" s="16">
-        <f>SUM(F12:F13)</f>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
-  <printOptions verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="77" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
 </worksheet>
 </file>
 
@@ -1189,6 +1043,164 @@
   <sheetData>
     <row r="2" ht="24.75" customHeight="true">
       <c r="C2" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="true">
+      <c r="B4" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <f>C4</f>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="true">
+      <c r="B5" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3">
+        <f>C5+1</f>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="true">
+      <c r="B6" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" customHeight="true">
+      <c r="B7" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="true">
+      <c r="B8" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="10" ht="20.25" customHeight="true">
+      <c r="B10" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="20.25" customHeight="true">
+      <c r="B11" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="B12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="E12" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="15">
+        <f>D12*E12</f>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="B13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="D13" t="n" s="13">
+        <v>1850.0</v>
+      </c>
+      <c r="E13" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="15">
+        <f>D13*E13</f>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="C14" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="D14" s="14">
+        <f>SUM(D12:D13)</f>
+      </c>
+      <c r="E14" s="12">
+        <f>SUM(E12:E13)</f>
+      </c>
+      <c r="F14" s="16">
+        <f>SUM(F12:F13)</f>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="77" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" customWidth="true"/>
+    <col min="3" max="3" width="19.44140625" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="17.44140625" customWidth="true"/>
+    <col min="6" max="6" width="17.44140625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="24.75" customHeight="true">
+      <c r="C2" t="s" s="17">
         <v>43</v>
       </c>
       <c r="D2" s="17"/>
